--- a/Ss1/Lab 1.01/Data.xlsx
+++ b/Ss1/Lab 1.01/Data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub Repository\Physic\Ss1\Lab 1.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Turn 1" sheetId="1" r:id="rId1"/>
     <sheet name="Turn 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Histogram" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>4.88 - 4.94</t>
+  </si>
+  <si>
+    <t>4.94 - 5.00</t>
+  </si>
+  <si>
+    <t>5.00 - 5.06</t>
+  </si>
+  <si>
+    <t>5.06 - 5.12</t>
+  </si>
+  <si>
+    <t>5.12 - 5.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5.18 - 5.24</t>
+  </si>
+  <si>
+    <t>5.24 - 5.3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +71,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -72,19 +115,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -97,6 +156,910 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histogram!$A$1:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.88 - 4.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.94 - 5.00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.00 - 5.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.06 - 5.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.12 - 5.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.18 - 5.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.24 - 5.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histogram!$B$1:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.6667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3333000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3332999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4161-446A-9181-FF855C568343}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="3"/>
+        <c:axId val="926179919"/>
+        <c:axId val="926181167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="926179919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926181167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="926181167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926179919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,4 +2718,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Ss1/Lab 1.01/Data.xlsx
+++ b/Ss1/Lab 1.01/Data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Turn 1" sheetId="1" r:id="rId1"/>
     <sheet name="Turn 2" sheetId="3" r:id="rId2"/>
     <sheet name="Histogram" sheetId="4" r:id="rId3"/>
+    <sheet name="Histogram (2)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>4.88 - 4.94</t>
   </si>
@@ -51,13 +52,35 @@
   <si>
     <t>5.24 - 5.3</t>
   </si>
+  <si>
+    <t>4,91</t>
+  </si>
+  <si>
+    <t>4,97</t>
+  </si>
+  <si>
+    <t>5,03</t>
+  </si>
+  <si>
+    <t>5,09</t>
+  </si>
+  <si>
+    <t>5,15</t>
+  </si>
+  <si>
+    <t>5,21</t>
+  </si>
+  <si>
+    <t>5,27</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -119,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -140,6 +163,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,36 +270,47 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Histogram!$A$1:$A$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Histogram!$A$1:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Histogram!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.88 - 4.94</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>4.94 - 5.00</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>5.00 - 5.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="3">
                   <c:v>5.06 - 5.12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="4">
                   <c:v>5.12 - 5.18</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="5">
                   <c:v>5.18 - 5.24</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="6">
                   <c:v>5.24 - 5.3</c:v>
                 </c:pt>
               </c:strCache>
@@ -283,29 +318,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Histogram!$B$1:$B$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Histogram!$B$1:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Histogram!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.6667000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>2.6667000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>4.3333000000000004</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="4">
                   <c:v>3.6667000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="5">
                   <c:v>2.6667000000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="6">
                   <c:v>1.3332999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -326,7 +368,366 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:overlap val="3"/>
+        <c:overlap val="-100"/>
+        <c:axId val="926179919"/>
+        <c:axId val="926181167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="926179919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926181167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="926181167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926179919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Нормальное распределение</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Histogram (2)'!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4,91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4,97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5,03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5,09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5,15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5,21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5,27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram (2)'!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.8690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8713000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8732000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8727999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8690000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01D3-42E8-A593-E2D79CC152FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-100"/>
         <c:axId val="926179919"/>
         <c:axId val="926181167"/>
       </c:barChart>
@@ -524,7 +925,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1037,15 +1981,52 @@
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2023,13 +3004,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2040,7 +3022,7 @@
         <f>5.0912-$A1</f>
         <v>-6.8800000000000416E-2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <f>$B1*$B1</f>
         <v>4.7334400000000575E-3</v>
       </c>
@@ -2053,7 +3035,7 @@
         <f t="shared" ref="B2:B50" si="0">5.0912-$A2</f>
         <v>1.1999999999998678E-3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <f t="shared" ref="C2:C50" si="1">$B2*$B2</f>
         <v>1.4399999999996828E-6</v>
       </c>
@@ -2066,7 +3048,7 @@
         <f t="shared" si="0"/>
         <v>-0.15880000000000027</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f t="shared" si="1"/>
         <v>2.5217440000000087E-2</v>
       </c>
@@ -2079,7 +3061,7 @@
         <f t="shared" si="0"/>
         <v>1.1999999999998678E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f t="shared" si="1"/>
         <v>1.4399999999996828E-6</v>
       </c>
@@ -2092,7 +3074,7 @@
         <f t="shared" si="0"/>
         <v>0.15119999999999933</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>2.2861439999999799E-2</v>
       </c>
@@ -2105,7 +3087,7 @@
         <f t="shared" si="0"/>
         <v>-8.799999999999919E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>7.7439999999998581E-5</v>
       </c>
@@ -2118,7 +3100,7 @@
         <f t="shared" si="0"/>
         <v>1.1999999999998678E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>1.4399999999996828E-6</v>
       </c>
@@ -2131,7 +3113,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2144,7 +3126,7 @@
         <f t="shared" si="0"/>
         <v>0.18119999999999958</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>3.2833439999999846E-2</v>
       </c>
@@ -2157,7 +3139,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2170,7 +3152,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2187,7 +3169,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2204,7 +3186,7 @@
         <f t="shared" si="0"/>
         <v>0.16120000000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>2.5985440000000002E-2</v>
       </c>
@@ -2217,7 +3199,7 @@
         <f t="shared" si="0"/>
         <v>-8.799999999999919E-3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>7.7439999999998581E-5</v>
       </c>
@@ -2234,7 +3216,7 @@
         <f t="shared" si="0"/>
         <v>-0.12880000000000003</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>1.6589440000000007E-2</v>
       </c>
@@ -2247,7 +3229,7 @@
         <f t="shared" si="0"/>
         <v>1.1999999999998678E-3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>1.4399999999996828E-6</v>
       </c>
@@ -2260,7 +3242,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2273,7 +3255,7 @@
         <f t="shared" si="0"/>
         <v>-9.8800000000000665E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>9.7614400000001315E-3</v>
       </c>
@@ -2286,7 +3268,7 @@
         <f t="shared" si="0"/>
         <v>1.1999999999998678E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>1.4399999999996828E-6</v>
       </c>
@@ -2299,7 +3281,7 @@
         <f t="shared" si="0"/>
         <v>0.16120000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>2.5985440000000002E-2</v>
       </c>
@@ -2312,7 +3294,7 @@
         <f t="shared" si="0"/>
         <v>-9.8800000000000665E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>9.7614400000001315E-3</v>
       </c>
@@ -2325,7 +3307,7 @@
         <f t="shared" si="0"/>
         <v>-3.8800000000000168E-2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>1.505440000000013E-3</v>
       </c>
@@ -2338,7 +3320,7 @@
         <f t="shared" si="0"/>
         <v>-9.8800000000000665E-2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>9.7614400000001315E-3</v>
       </c>
@@ -2351,7 +3333,7 @@
         <f t="shared" si="0"/>
         <v>-3.8800000000000168E-2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>1.505440000000013E-3</v>
       </c>
@@ -2364,7 +3346,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2377,7 +3359,7 @@
         <f t="shared" si="0"/>
         <v>9.1199999999999726E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <f t="shared" si="1"/>
         <v>8.3174399999999503E-3</v>
       </c>
@@ -2390,7 +3372,7 @@
         <f t="shared" si="0"/>
         <v>-0.15880000000000027</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <f t="shared" si="1"/>
         <v>2.5217440000000087E-2</v>
       </c>
@@ -2403,7 +3385,7 @@
         <f t="shared" si="0"/>
         <v>0.15119999999999933</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <f t="shared" si="1"/>
         <v>2.2861439999999799E-2</v>
       </c>
@@ -2416,7 +3398,7 @@
         <f t="shared" si="0"/>
         <v>-8.879999999999999E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <f t="shared" si="1"/>
         <v>7.8854399999999988E-3</v>
       </c>
@@ -2429,7 +3411,7 @@
         <f t="shared" si="0"/>
         <v>9.1199999999999726E-2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <f t="shared" si="1"/>
         <v>8.3174399999999503E-3</v>
       </c>
@@ -2442,7 +3424,7 @@
         <f t="shared" si="0"/>
         <v>-9.8800000000000665E-2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <f t="shared" si="1"/>
         <v>9.7614400000001315E-3</v>
       </c>
@@ -2455,7 +3437,7 @@
         <f t="shared" si="0"/>
         <v>-6.8800000000000416E-2</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <f t="shared" si="1"/>
         <v>4.7334400000000575E-3</v>
       </c>
@@ -2468,7 +3450,7 @@
         <f t="shared" si="0"/>
         <v>-0.18880000000000052</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <f t="shared" si="1"/>
         <v>3.5645440000000195E-2</v>
       </c>
@@ -2481,7 +3463,7 @@
         <f t="shared" si="0"/>
         <v>-0.11880000000000024</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <f t="shared" si="1"/>
         <v>1.4113440000000057E-2</v>
       </c>
@@ -2494,7 +3476,7 @@
         <f t="shared" si="0"/>
         <v>-6.8800000000000416E-2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>4.7334400000000575E-3</v>
       </c>
@@ -2507,7 +3489,7 @@
         <f t="shared" si="0"/>
         <v>-3.8800000000000168E-2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>1.505440000000013E-3</v>
       </c>
@@ -2520,7 +3502,7 @@
         <f t="shared" si="0"/>
         <v>0.15119999999999933</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>2.2861439999999799E-2</v>
       </c>
@@ -2533,7 +3515,7 @@
         <f t="shared" si="0"/>
         <v>-2.8800000000000381E-2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>8.2944000000002198E-4</v>
       </c>
@@ -2546,7 +3528,7 @@
         <f t="shared" si="0"/>
         <v>-0.12880000000000003</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>1.6589440000000007E-2</v>
       </c>
@@ -2559,7 +3541,7 @@
         <f t="shared" si="0"/>
         <v>-0.18880000000000052</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>3.5645440000000195E-2</v>
       </c>
@@ -2572,7 +3554,7 @@
         <f t="shared" si="0"/>
         <v>3.1200000000000117E-2</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>9.7344000000000727E-4</v>
       </c>
@@ -2585,7 +3567,7 @@
         <f t="shared" si="0"/>
         <v>0.21119999999999983</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>4.4605439999999927E-2</v>
       </c>
@@ -2598,7 +3580,7 @@
         <f t="shared" si="0"/>
         <v>9.1199999999999726E-2</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>8.3174399999999503E-3</v>
       </c>
@@ -2611,7 +3593,7 @@
         <f t="shared" si="0"/>
         <v>0.16120000000000001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <f t="shared" si="1"/>
         <v>2.5985440000000002E-2</v>
       </c>
@@ -2624,7 +3606,7 @@
         <f t="shared" si="0"/>
         <v>-3.8800000000000168E-2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <f t="shared" si="1"/>
         <v>1.505440000000013E-3</v>
       </c>
@@ -2637,7 +3619,7 @@
         <f t="shared" si="0"/>
         <v>-6.8800000000000416E-2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <f t="shared" si="1"/>
         <v>4.7334400000000575E-3</v>
       </c>
@@ -2650,7 +3632,7 @@
         <f t="shared" si="0"/>
         <v>9.1199999999999726E-2</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <f t="shared" si="1"/>
         <v>8.3174399999999503E-3</v>
       </c>
@@ -2663,7 +3645,7 @@
         <f t="shared" si="0"/>
         <v>9.1199999999999726E-2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <f t="shared" si="1"/>
         <v>8.3174399999999503E-3</v>
       </c>
@@ -2676,7 +3658,7 @@
         <f t="shared" si="0"/>
         <v>-3.8800000000000168E-2</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <f t="shared" si="1"/>
         <v>1.505440000000013E-3</v>
       </c>
@@ -2689,7 +3671,7 @@
         <f t="shared" si="0"/>
         <v>6.1199999999999477E-2</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <f t="shared" si="1"/>
         <v>3.7454399999999359E-3</v>
       </c>
@@ -2703,7 +3685,7 @@
         <f>SUM(B1:B50)</f>
         <v>-1.1546319456101628E-14</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <f>SUM(C1:C50)</f>
         <v>0.51952800000000021</v>
       </c>
@@ -2724,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2743,47 +3725,59 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.6667000000000001</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>2.6667000000000001</v>
+        <v>4.3333000000000004</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>4.3333000000000004</v>
+        <v>3.6667000000000001</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.6667000000000001</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7">
-        <v>5</v>
+        <v>1.3332999999999999</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
@@ -2794,13 +3788,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3.6667000000000001</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2811,13 +3799,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2.6667000000000001</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2826,13 +3808,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1.3332999999999999</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2843,6 +3819,106 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.8713000000000002</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3.8727</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.8732000000000002</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.8727999999999998</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3.8714</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
